--- a/Test-case-pickaboo.xlsx
+++ b/Test-case-pickaboo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\SQA\Project\Test Case Pickaboo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E303DA8-02B5-40CE-B991-0067E1998402}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F59620-A128-4C17-85EA-47599F7F0972}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>PASS</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t xml:space="preserve">comment </t>
+  </si>
+  <si>
+    <t>dfdg</t>
+  </si>
+  <si>
+    <t>sdfsfsf</t>
   </si>
 </sst>
 </file>
@@ -586,6 +592,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -603,48 +651,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1468,7 +1474,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1487,10 +1493,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1506,16 +1512,16 @@
       <c r="G1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="44"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="2" t="s">
         <v>42</v>
       </c>
@@ -1540,10 +1546,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="2"/>
       <c r="D3" s="9" t="s">
         <v>11</v>
@@ -1566,10 +1572,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
@@ -1594,15 +1600,15 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="44"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="58"/>
       <c r="H5" s="12" t="s">
         <v>18</v>
       </c>
@@ -1754,7 +1760,9 @@
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
-      <c r="D14" s="28"/>
+      <c r="D14" s="28" t="s">
+        <v>50</v>
+      </c>
       <c r="E14" s="17"/>
       <c r="F14" s="16"/>
       <c r="G14" s="17"/>
@@ -1776,7 +1784,7 @@
       <c r="A16" s="15"/>
       <c r="B16" s="17"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="57"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="16"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
@@ -1787,8 +1795,10 @@
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="41"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="53"/>
+      <c r="D17" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="47"/>
       <c r="F17" s="16"/>
       <c r="G17" s="17"/>
       <c r="H17" s="18"/>
@@ -1798,7 +1808,7 @@
       <c r="A18" s="21"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="55"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="16"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
@@ -1808,7 +1818,7 @@
     <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="50"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="30"/>
       <c r="E19" s="16"/>
       <c r="F19" s="17"/>
@@ -1818,8 +1828,8 @@
     </row>
     <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="52"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="26"/>
       <c r="E20" s="17"/>
       <c r="F20" s="16"/>
@@ -1830,7 +1840,7 @@
     <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="51"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="30"/>
       <c r="E21" s="16"/>
       <c r="F21" s="17"/>
@@ -1842,7 +1852,7 @@
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="54"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="17"/>
@@ -1853,8 +1863,8 @@
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="41"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="53"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="47"/>
       <c r="F23" s="16"/>
       <c r="G23" s="17"/>
       <c r="H23" s="18"/>
@@ -1864,7 +1874,7 @@
       <c r="A24" s="21"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="55"/>
+      <c r="D24" s="49"/>
       <c r="E24" s="16"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -2136,26 +2146,26 @@
       <c r="I48" s="36"/>
     </row>
     <row r="49" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="59"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="61"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="55"/>
     </row>
     <row r="50" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="62"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
+      <c r="A50" s="56"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Test-case-pickaboo.xlsx
+++ b/Test-case-pickaboo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\SQA\Project\Test Case Pickaboo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F59620-A128-4C17-85EA-47599F7F0972}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FB3802-FB0A-4635-A934-D6DCC8D6696D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>PASS</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>sdfsfsf</t>
+  </si>
+  <si>
+    <t>Sakib</t>
+  </si>
+  <si>
+    <t>Al hassan</t>
   </si>
 </sst>
 </file>
@@ -1474,7 +1480,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1785,8 +1791,12 @@
       <c r="B16" s="17"/>
       <c r="C16" s="16"/>
       <c r="D16" s="51"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
+      <c r="E16" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="G16" s="17"/>
       <c r="H16" s="19"/>
       <c r="I16" s="36"/>

--- a/Test-case-pickaboo.xlsx
+++ b/Test-case-pickaboo.xlsx
@@ -8,24 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\SQA\Project\Test Case Pickaboo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FB3802-FB0A-4635-A934-D6DCC8D6696D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F8CC34-EA7F-4546-8F0F-06281F428F58}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Cases" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Registration Page" sheetId="3" r:id="rId1"/>
+    <sheet name="Login Page" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="mm">'Test Cases'!$I$8</definedName>
-    <definedName name="verify_package_Design">'Test Cases'!$I$8</definedName>
+    <definedName name="mm" localSheetId="1">'Login Page'!$H$8</definedName>
+    <definedName name="mm">'Registration Page'!$H$8</definedName>
+    <definedName name="verify_package_Design" localSheetId="1">'Login Page'!$H$8</definedName>
+    <definedName name="verify_package_Design">'Registration Page'!$H$8</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="107">
   <si>
     <t>PASS</t>
   </si>
@@ -102,98 +104,275 @@
     <t>Step Description</t>
   </si>
   <si>
-    <t>Actual</t>
-  </si>
-  <si>
-    <t>TC001</t>
-  </si>
-  <si>
-    <t>TC002</t>
-  </si>
-  <si>
-    <t>BlankPhoneNumber</t>
-  </si>
-  <si>
-    <t>Valid phone number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify packge details page design </t>
-  </si>
-  <si>
-    <t>Go package &amp; plan-&gt; data-&gt; scrol down</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buy new button of data card should be same aline </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buy new button of data card is not be same aline </t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>28/4/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nusrat , Oishi </t>
-  </si>
-  <si>
-    <t>Noman , Moni</t>
-  </si>
-  <si>
     <t>15/04/2021</t>
   </si>
   <si>
     <t>28/04/2021</t>
   </si>
   <si>
-    <t>Do not show the alart pop-up  correctly.</t>
-  </si>
-  <si>
     <t>Epic</t>
   </si>
   <si>
-    <t>Packages</t>
-  </si>
-  <si>
-    <t>dtac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precondition </t>
-  </si>
-  <si>
-    <t>Verify First name</t>
-  </si>
-  <si>
-    <t>1. '"@&amp;^%"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">goto  https://www.othoba.com-&gt; tap on x button of advertise -&gt; tap on sign up-&gt; fill with first name with  "Special character-@&amp;^%" -&gt; fill up other fieldcorrectly  -&gt;  tap onregistration button </t>
-  </si>
-  <si>
-    <t>user should get alart pop-up of special cheracter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment </t>
-  </si>
-  <si>
-    <t>dfdg</t>
-  </si>
-  <si>
-    <t>sdfsfsf</t>
-  </si>
-  <si>
-    <t>Sakib</t>
-  </si>
-  <si>
-    <t>Al hassan</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Blank input</t>
+  </si>
+  <si>
+    <t>It should show an error message on mandatory fields</t>
+  </si>
+  <si>
+    <t>Give an error message on mandatory fields</t>
+  </si>
+  <si>
+    <t>The functionality works perfectly</t>
+  </si>
+  <si>
+    <t>Blank input fields error</t>
+  </si>
+  <si>
+    <t>019&amp;%gk875</t>
+  </si>
+  <si>
+    <t>Showed an error message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goto www.pickaboo.com -&gt; Tap on register option -&gt; Do not enter any value in all field -&gt;  Tap on create an account button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify entering blank spaces on all input fields </t>
+  </si>
+  <si>
+    <t>Invalid mobile number</t>
+  </si>
+  <si>
+    <t>Verify mobile number by entering wrong OTP</t>
+  </si>
+  <si>
+    <t>Test mobile input field with invalid number</t>
+  </si>
+  <si>
+    <t>Will show an error message due to invalid mobile number</t>
+  </si>
+  <si>
+    <t>Mobile number will not be verified and will give validation error</t>
+  </si>
+  <si>
+    <t>Mobile number was not verified and a validity error was given</t>
+  </si>
+  <si>
+    <t>Wrong OTP error</t>
+  </si>
+  <si>
+    <t>Verify mobile number by entering correct OTP</t>
+  </si>
+  <si>
+    <t>353456 (Wrong otp)</t>
+  </si>
+  <si>
+    <t>5673 (Correct otp)</t>
+  </si>
+  <si>
+    <t>Mobile number will be verified without any error message</t>
+  </si>
+  <si>
+    <t>Mobile number has been successfully verified</t>
+  </si>
+  <si>
+    <t>Correct OTP</t>
+  </si>
+  <si>
+    <t>Check the password limit when enter value less than minimum length</t>
+  </si>
+  <si>
+    <t>Four length password</t>
+  </si>
+  <si>
+    <t>Goto www.pickaboo.com -&gt; Tap on register option -&gt; Enter four length password in password field</t>
+  </si>
+  <si>
+    <t>It should show validation message</t>
+  </si>
+  <si>
+    <t>Showed validation message</t>
+  </si>
+  <si>
+    <t>Min length password</t>
+  </si>
+  <si>
+    <t>TC-Reg-001</t>
+  </si>
+  <si>
+    <t>TC-Reg-002</t>
+  </si>
+  <si>
+    <t>TC-Reg-003</t>
+  </si>
+  <si>
+    <t>TC-Reg-004</t>
+  </si>
+  <si>
+    <t>TC-Reg-005</t>
+  </si>
+  <si>
+    <t>TC-Reg-006</t>
+  </si>
+  <si>
+    <t>Verify if the password required rules are not satisfied in the password</t>
+  </si>
+  <si>
+    <t>It should display error with required rules for password.  like it should contain a special character, a small case, a number</t>
+  </si>
+  <si>
+    <t>Goto www.pickaboo.com -&gt; Tap on register option -&gt;  Enter the password which not satisfies the required rule</t>
+  </si>
+  <si>
+    <t>Didn't give any validation error</t>
+  </si>
+  <si>
+    <t>The functionality did not work perfectly</t>
+  </si>
+  <si>
+    <t>Password validation rules were not obeyed</t>
+  </si>
+  <si>
+    <t>TC-Reg-007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goto www.pickaboo.com -&gt; Tap on register option -&gt; Enter alphanumeric data in Customer Mobile field -&gt; Click on Generate OTP button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goto www.pickaboo.com -&gt; Tap on register option -&gt; Enter wrong OTP -&gt;  Click on Generate OTP button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goto www.pickaboo.com -&gt; Tap on register option -&gt; Enter correct OTP -&gt;  Click on Generate OTP button </t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Check if password and confirm password input field has the same value</t>
+  </si>
+  <si>
+    <t>Will not show any error message</t>
+  </si>
+  <si>
+    <t>Same value in password and confirm password input field</t>
+  </si>
+  <si>
+    <t>abcdgfhf (Password which not satisfies the required rule)</t>
+  </si>
+  <si>
+    <t>Didn't show any error message</t>
+  </si>
+  <si>
+    <t>Same value in password &amp; confirm password field</t>
+  </si>
+  <si>
+    <t>TC-Reg-008</t>
+  </si>
+  <si>
+    <t>Check if password and confirm password input field has not the same value</t>
+  </si>
+  <si>
+    <t>Different value in password and confirm password input field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goto www.pickaboo.com -&gt; Tap on register option -&gt; Put same value in password and confirm password input field -&gt; Click on create an account button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goto www.pickaboo.com -&gt; Tap on register option -&gt; Put different value in password and confirm password input field -&gt; Click on create an account button </t>
+  </si>
+  <si>
+    <t>Will show error message</t>
+  </si>
+  <si>
+    <t>Error message showed</t>
+  </si>
+  <si>
+    <t>Different value in password &amp; confirm password field</t>
+  </si>
+  <si>
+    <t>TC-Log-001</t>
+  </si>
+  <si>
+    <t>Blank Input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goto www.pickaboo.com -&gt; Tap on log in option -&gt; Do not enter any value in all field -&gt;  Tap on log in button </t>
+  </si>
+  <si>
+    <t>TC-Log-002</t>
+  </si>
+  <si>
+    <t>Check the Email text field that has an Email address without @ symbol</t>
+  </si>
+  <si>
+    <t>testgmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give an validation error message </t>
+  </si>
+  <si>
+    <t>Invalid email</t>
+  </si>
+  <si>
+    <t>TC-Log-003</t>
+  </si>
+  <si>
+    <t>Check the Email text field that has a random string instead of a real email</t>
+  </si>
+  <si>
+    <t>test@gmailcom</t>
+  </si>
+  <si>
+    <t>It should show the validation error message for invalid email</t>
+  </si>
+  <si>
+    <t>Picaboo</t>
+  </si>
+  <si>
+    <t>Registration Page</t>
+  </si>
+  <si>
+    <t>Login Page</t>
+  </si>
+  <si>
+    <t>Goto www.pickaboo.com -&gt; Tap on log in option -&gt; Enter invalid emails -&gt; Click on the login button</t>
+  </si>
+  <si>
+    <t>Check the Email text field that has a missing dot in the email address.</t>
+  </si>
+  <si>
+    <t>test123@gmail</t>
+  </si>
+  <si>
+    <t>TC-Log-004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -204,6 +383,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -259,9 +439,23 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,12 +466,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD8D8D8"/>
-        <bgColor rgb="FFD8D8D8"/>
       </patternFill>
     </fill>
     <fill>
@@ -310,8 +498,20 @@
         <bgColor rgb="FFD6E3BC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor rgb="FFD8D8D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -455,14 +655,71 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color rgb="FF000000"/>
-      </left>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -470,7 +727,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -481,39 +738,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -538,17 +789,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -571,99 +819,845 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="12" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="120">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1208,6 +2202,236 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>389659</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>259773</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B9DB7B7-A0FE-43F6-A077-696C3CFD3675}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14166273" y="4052455"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>632114</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F0208C6-FC6E-4037-AEBF-8878A2AADEF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11490614" y="4173682"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>389659</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D66E378C-99C8-4302-A037-A9AC381A9632}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12829309" y="4336473"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>632114</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31C9D46A-1268-48CC-A35D-88DBBFA94ECF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10042814" y="4457700"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1476,121 +2700,116 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:J981"/>
+  <dimension ref="A1:I976"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="18" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" style="7" customWidth="1"/>
     <col min="5" max="5" width="37.85546875" style="7" customWidth="1"/>
     <col min="6" max="6" width="28.28515625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="30" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" style="7" customWidth="1"/>
     <col min="9" max="9" width="25" style="7" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="7" customWidth="1"/>
     <col min="11" max="16384" width="14.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="61"/>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5">
-        <v>44504</v>
+      <c r="E1" s="44">
+        <v>44565</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58"/>
-    </row>
-    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="I1" s="57"/>
+    </row>
+    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>35</v>
+      <c r="E2" s="44">
+        <v>44568</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="22">
-        <f>COUNTIF(H7:H49, "PASS")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="58"/>
+      <c r="I2" s="20">
+        <f>COUNTIF(G7:G45, "PASS")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="57"/>
       <c r="C3" s="2"/>
       <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="E3" s="3"/>
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="50">
         <v>1</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="23">
-        <f>COUNTIF(H8:H49, "Fail")</f>
+      <c r="I3" s="21">
+        <f>COUNTIF(G7:G45, "Fail")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="B4" s="57"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1600,597 +2819,650 @@
       <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="24">
-        <f>COUNTIF(H8:H49, "WARNING")</f>
+      <c r="I4" s="22">
+        <f>COUNTIF(G7:G45, "WARNING")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="58"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="57"/>
       <c r="H5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="23">
         <f>SUM(I2:I4:I3)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="16" t="s">
+      <c r="H12" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="34"/>
-    </row>
-    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="34"/>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="35"/>
-    </row>
-    <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="34"/>
-    </row>
-    <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="34"/>
-    </row>
-    <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="35"/>
-    </row>
-    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
+    </row>
+    <row r="14" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>53</v>
-      </c>
+      <c r="H15" s="42"/>
+      <c r="I15" s="41"/>
+    </row>
+    <row r="16" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="17"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="36"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="41"/>
+    </row>
+    <row r="17" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="41"/>
     </row>
     <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="37"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="41"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="36"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="41"/>
     </row>
     <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="37"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="41"/>
     </row>
     <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="36"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="41"/>
     </row>
     <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="36"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="41"/>
     </row>
     <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="37"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="41"/>
     </row>
     <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="36"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="41"/>
     </row>
     <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="36"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="41"/>
     </row>
     <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="37"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="41"/>
     </row>
     <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="36"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="41"/>
     </row>
     <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="36"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="41"/>
     </row>
     <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="37"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="41"/>
     </row>
     <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="36"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="41"/>
     </row>
     <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="36"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="41"/>
     </row>
     <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="37"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="41"/>
     </row>
     <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="36"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="41"/>
     </row>
     <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="36"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="41"/>
     </row>
     <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="37"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="41"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="36"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="41"/>
     </row>
     <row r="37" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="36"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="41"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="37"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="41"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="36"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="41"/>
     </row>
     <row r="40" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="36"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="41"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="37"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="41"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="36"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="41"/>
     </row>
     <row r="43" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="36"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="41"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="37"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="41"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="36"/>
-    </row>
-    <row r="46" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="36"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="37"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="36"/>
-    </row>
-    <row r="49" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="53"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="55"/>
-    </row>
-    <row r="50" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="56"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="41"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3103,11 +4375,6 @@
     <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A5:B5"/>
@@ -3119,288 +4386,2230 @@
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="H11 H14 H17 H8:H9 H23">
-    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
+  <conditionalFormatting sqref="G11 G14 G17 G23 G8:G9">
+    <cfRule type="cellIs" dxfId="119" priority="65" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11 H14 H17 H8:H9 H23">
-    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
+  <conditionalFormatting sqref="G11 G14 G17 G23 G8:G9">
+    <cfRule type="cellIs" dxfId="118" priority="66" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11 H14 H17 H8:H9 H23">
-    <cfRule type="cellIs" dxfId="49" priority="55" operator="equal">
+  <conditionalFormatting sqref="G11 G14 G17 G23 G8:G9">
+    <cfRule type="cellIs" dxfId="117" priority="67" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11 H14 H17 H8:H9 H23">
-    <cfRule type="containsBlanks" dxfId="48" priority="56">
-      <formula>LEN(TRIM(H8))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+  <conditionalFormatting sqref="G11 G14 G17 G23 G8:G9">
+    <cfRule type="containsBlanks" dxfId="116" priority="68">
+      <formula>LEN(TRIM(G8))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="115" priority="57" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="114" priority="58" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="113" priority="59" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="containsBlanks" dxfId="44" priority="48">
-      <formula>LEN(TRIM(H26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+  <conditionalFormatting sqref="G26">
+    <cfRule type="containsBlanks" dxfId="112" priority="60">
+      <formula>LEN(TRIM(G26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="111" priority="53" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="110" priority="54" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="109" priority="55" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsBlanks" dxfId="40" priority="44">
-      <formula>LEN(TRIM(H29))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsBlanks" dxfId="108" priority="56">
+      <formula>LEN(TRIM(G29))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="cellIs" dxfId="107" priority="49" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+  <conditionalFormatting sqref="G35">
+    <cfRule type="cellIs" dxfId="106" priority="50" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+  <conditionalFormatting sqref="G35">
+    <cfRule type="cellIs" dxfId="105" priority="51" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="containsBlanks" dxfId="36" priority="40">
-      <formula>LEN(TRIM(H35))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+  <conditionalFormatting sqref="G35">
+    <cfRule type="containsBlanks" dxfId="104" priority="52">
+      <formula>LEN(TRIM(G35))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="103" priority="45" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="102" priority="46" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="101" priority="47" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="containsBlanks" dxfId="32" priority="36">
-      <formula>LEN(TRIM(H38))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+  <conditionalFormatting sqref="G38">
+    <cfRule type="containsBlanks" dxfId="100" priority="48">
+      <formula>LEN(TRIM(G38))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="cellIs" dxfId="99" priority="41" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+  <conditionalFormatting sqref="G41">
+    <cfRule type="cellIs" dxfId="98" priority="42" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+  <conditionalFormatting sqref="G41">
+    <cfRule type="cellIs" dxfId="97" priority="43" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="containsBlanks" dxfId="28" priority="32">
-      <formula>LEN(TRIM(H41))=0</formula>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="containsBlanks" dxfId="96" priority="44">
+      <formula>LEN(TRIM(G41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="37" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="38" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="39" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="containsBlanks" dxfId="24" priority="28">
+    <cfRule type="containsBlanks" dxfId="92" priority="40">
       <formula>LEN(TRIM(I2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="33" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="34" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="35" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsBlanks" dxfId="20" priority="24">
+    <cfRule type="containsBlanks" dxfId="88" priority="36">
       <formula>LEN(TRIM(I3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="87" priority="29" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="86" priority="30" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="85" priority="31" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="containsBlanks" dxfId="16" priority="20">
-      <formula>LEN(TRIM(H7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsBlanks" dxfId="84" priority="32">
+      <formula>LEN(TRIM(G7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="83" priority="25" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="82" priority="26" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="81" priority="27" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="containsBlanks" dxfId="12" priority="16">
-      <formula>LEN(TRIM(H20))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+  <conditionalFormatting sqref="G20">
+    <cfRule type="containsBlanks" dxfId="80" priority="28">
+      <formula>LEN(TRIM(G20))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="cellIs" dxfId="79" priority="21" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+  <conditionalFormatting sqref="G32">
+    <cfRule type="cellIs" dxfId="78" priority="22" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+  <conditionalFormatting sqref="G32">
+    <cfRule type="cellIs" dxfId="77" priority="23" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="containsBlanks" dxfId="8" priority="12">
-      <formula>LEN(TRIM(H32))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+  <conditionalFormatting sqref="G32">
+    <cfRule type="containsBlanks" dxfId="76" priority="24">
+      <formula>LEN(TRIM(G32))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44">
+    <cfRule type="cellIs" dxfId="75" priority="17" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+  <conditionalFormatting sqref="G44">
+    <cfRule type="cellIs" dxfId="74" priority="18" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+  <conditionalFormatting sqref="G44">
+    <cfRule type="cellIs" dxfId="73" priority="19" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="containsBlanks" dxfId="4" priority="8">
-      <formula>LEN(TRIM(H44))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="G44">
+    <cfRule type="containsBlanks" dxfId="72" priority="20">
+      <formula>LEN(TRIM(G44))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="71" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="70" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="69" priority="11" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="containsBlanks" dxfId="0" priority="4">
-      <formula>LEN(TRIM(H47))=0</formula>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="containsBlanks" dxfId="68" priority="12">
+      <formula>LEN(TRIM(G10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="67" priority="5" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="66" priority="6" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="65" priority="7" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="containsBlanks" dxfId="64" priority="8">
+      <formula>LEN(TRIM(G12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="containsBlanks" dxfId="60" priority="4">
+      <formula>LEN(TRIM(G13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="1346" yWindow="406" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items" sqref="H8:H9 H11 H14 H17 H23 H26 H29 H35 H38 H41 H7 H20 H32 H44 H47" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items" sqref="G17 G23 G26 G29 G35 G38 G41 G20 G32 G44 G7:G14" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PASS,FAIL,WARNING"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H7" r:id="rId1" xr:uid="{AE088FAA-3F53-489B-ADD6-982477919BB8}"/>
+    <hyperlink ref="H8" r:id="rId2" xr:uid="{A16B302E-C69C-4610-9B86-4AA8EB0FA85C}"/>
+    <hyperlink ref="H9" r:id="rId3" xr:uid="{2FA7586A-C44A-4079-A797-68859E281512}"/>
+    <hyperlink ref="H10" r:id="rId4" xr:uid="{7364C0B0-B8B9-4B1F-8084-6C0364B710C5}"/>
+    <hyperlink ref="H11" r:id="rId5" xr:uid="{3EEA52D6-1CE1-4198-BCF4-78E7E24FDB22}"/>
+    <hyperlink ref="H12" r:id="rId6" xr:uid="{0D86AB5D-AAD9-4C0A-97E8-E4C7A12FC061}"/>
+    <hyperlink ref="H13" r:id="rId7" xr:uid="{6DA80DF0-48B1-4219-9A25-1F4FDD428885}"/>
+    <hyperlink ref="H14" r:id="rId8" xr:uid="{0427BC06-5318-481D-B036-14C9A7380BAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId3"/>
+  <pageSetup orientation="landscape" r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21465BE2-1C95-4C57-A13A-EE63772EDC95}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B474988E-73DE-420F-9C29-5834E85CF2BE}">
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
+  <dimension ref="A1:I975"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="25" style="7" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="44">
+        <v>44565</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="57"/>
+    </row>
+    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="44">
+        <v>44568</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="20">
+        <f>COUNTIF(G7:G44, "PASS")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="50">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="21">
+        <f>COUNTIF(G7:G44, "Fail")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="57"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="22">
+        <f>COUNTIF(G7:G44, "WARNING")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="23">
+        <f>SUM(I2:I4:I3)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="72"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="73"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="55"/>
+      <c r="I11" s="34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="51"/>
+      <c r="I12" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="51"/>
+      <c r="I13" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="41"/>
+    </row>
+    <row r="15" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="41"/>
+    </row>
+    <row r="16" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="41"/>
+    </row>
+    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="19"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="41"/>
+    </row>
+    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="41"/>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="41"/>
+    </row>
+    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="19"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="41"/>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="41"/>
+    </row>
+    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="41"/>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="19"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="41"/>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="41"/>
+    </row>
+    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="41"/>
+    </row>
+    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="19"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="41"/>
+    </row>
+    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="41"/>
+    </row>
+    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="41"/>
+    </row>
+    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="19"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="41"/>
+    </row>
+    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="41"/>
+    </row>
+    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="41"/>
+    </row>
+    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="19"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="41"/>
+    </row>
+    <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="41"/>
+    </row>
+    <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="41"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="19"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="41"/>
+    </row>
+    <row r="36" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="41"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="41"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="19"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="41"/>
+    </row>
+    <row r="39" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="41"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="41"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="19"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="41"/>
+    </row>
+    <row r="42" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="41"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="41"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="19"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="41"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G13 G16 G22 G8:G10">
+    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13 G16 G22 G8:G10">
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13 G16 G22 G8:G10">
+    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13 G16 G22 G8:G10">
+    <cfRule type="containsBlanks" dxfId="56" priority="60">
+      <formula>LEN(TRIM(G8))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="containsBlanks" dxfId="52" priority="56">
+      <formula>LEN(TRIM(G25))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="containsBlanks" dxfId="48" priority="52">
+      <formula>LEN(TRIM(G28))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="containsBlanks" dxfId="44" priority="48">
+      <formula>LEN(TRIM(G34))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37">
+    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37">
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37">
+    <cfRule type="containsBlanks" dxfId="40" priority="44">
+      <formula>LEN(TRIM(G37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="containsBlanks" dxfId="36" priority="40">
+      <formula>LEN(TRIM(G40))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="containsBlanks" dxfId="32" priority="36">
+      <formula>LEN(TRIM(I2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="containsBlanks" dxfId="28" priority="32">
+      <formula>LEN(TRIM(I3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsBlanks" dxfId="24" priority="28">
+      <formula>LEN(TRIM(G7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="containsBlanks" dxfId="20" priority="24">
+      <formula>LEN(TRIM(G19))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="containsBlanks" dxfId="16" priority="20">
+      <formula>LEN(TRIM(G31))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43">
+    <cfRule type="containsBlanks" dxfId="12" priority="16">
+      <formula>LEN(TRIM(G43))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="containsBlanks" dxfId="4" priority="8">
+      <formula>LEN(TRIM(G11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="containsBlanks" dxfId="0" priority="4">
+      <formula>LEN(TRIM(G12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items" sqref="G16 G22 G25 G28 G34 G37 G40 G19 G31 G43 G7:G13" xr:uid="{1FB0E614-F31C-43FD-98E9-CA7BACB014D0}">
+      <formula1>"PASS,FAIL,WARNING"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H7" r:id="rId1" xr:uid="{5EDB6661-54AF-439F-9EB5-9C54FF13A78D}"/>
+    <hyperlink ref="H8" r:id="rId2" xr:uid="{DB53CE6B-1C6D-45E8-B70D-1AF146708407}"/>
+    <hyperlink ref="H10" r:id="rId3" xr:uid="{D0F81FC2-C92B-4275-9B42-EA6D9FCA00ED}"/>
+    <hyperlink ref="H9" r:id="rId4" xr:uid="{69A3465F-667F-4906-A05C-4849D90A2D76}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/Test-case-pickaboo.xlsx
+++ b/Test-case-pickaboo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\SQA\Project\Test Case Pickaboo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F8CC34-EA7F-4546-8F0F-06281F428F58}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789275F2-24AA-45E8-ABAE-A12AE0979675}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="113">
   <si>
     <t>PASS</t>
   </si>
@@ -102,12 +102,6 @@
   </si>
   <si>
     <t>Step Description</t>
-  </si>
-  <si>
-    <t>15/04/2021</t>
-  </si>
-  <si>
-    <t>28/04/2021</t>
   </si>
   <si>
     <t>Epic</t>
@@ -366,6 +360,30 @@
   </si>
   <si>
     <t>TC-Log-004</t>
+  </si>
+  <si>
+    <t>TC-Log-005</t>
+  </si>
+  <si>
+    <t>Verify entering wrong email and password</t>
+  </si>
+  <si>
+    <t>Goto www.pickaboo.com -&gt; Tap on log in option -&gt; Enter wrong email and password</t>
+  </si>
+  <si>
+    <t>User should not log in and should show proper error message</t>
+  </si>
+  <si>
+    <t>email: testmail@gmail.com Password: abc123</t>
+  </si>
+  <si>
+    <t>Not logged in and showed error message</t>
+  </si>
+  <si>
+    <t>Invalid user</t>
+  </si>
+  <si>
+    <t>Sakibul Islam</t>
   </si>
 </sst>
 </file>
@@ -891,7 +909,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -911,30 +955,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -960,48 +980,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="120">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="116">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2705,7 +2684,7 @@
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F16" sqref="F16"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2724,12 +2703,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="61"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -2740,34 +2719,28 @@
       <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="62" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="44">
-        <v>44568</v>
-      </c>
+      <c r="E2" s="44"/>
       <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="G2" s="5"/>
       <c r="H2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2777,15 +2750,17 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="57"/>
+      <c r="A3" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="65"/>
       <c r="C3" s="2"/>
       <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2801,10 +2776,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="s">
         <v>14</v>
@@ -2825,15 +2800,15 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="57"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="65"/>
       <c r="H5" s="12" t="s">
         <v>18</v>
       </c>
@@ -2859,7 +2834,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G6" s="46" t="s">
         <v>22</v>
@@ -2868,239 +2843,239 @@
         <v>2</v>
       </c>
       <c r="I6" s="48" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>0</v>
       </c>
       <c r="H9" s="51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="D10" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>0</v>
       </c>
       <c r="H10" s="51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="E11" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="F11" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>55</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="F12" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>66</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="D13" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="52" t="s">
+      <c r="D14" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="E14" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>0</v>
       </c>
       <c r="H14" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4387,302 +4362,302 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="G11 G14 G17 G23 G8:G9">
-    <cfRule type="cellIs" dxfId="119" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="65" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11 G14 G17 G23 G8:G9">
-    <cfRule type="cellIs" dxfId="118" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="66" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11 G14 G17 G23 G8:G9">
-    <cfRule type="cellIs" dxfId="117" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="67" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11 G14 G17 G23 G8:G9">
-    <cfRule type="containsBlanks" dxfId="116" priority="68">
+    <cfRule type="containsBlanks" dxfId="112" priority="68">
       <formula>LEN(TRIM(G8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="115" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="57" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="114" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="58" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="113" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="59" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="containsBlanks" dxfId="112" priority="60">
+    <cfRule type="containsBlanks" dxfId="108" priority="60">
       <formula>LEN(TRIM(G26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="111" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="53" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="110" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="54" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="109" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="55" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsBlanks" dxfId="108" priority="56">
+    <cfRule type="containsBlanks" dxfId="104" priority="56">
       <formula>LEN(TRIM(G29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="107" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="49" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="106" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="50" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="105" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="51" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="containsBlanks" dxfId="104" priority="52">
+    <cfRule type="containsBlanks" dxfId="100" priority="52">
       <formula>LEN(TRIM(G35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="103" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="45" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="102" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="46" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="101" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="47" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="containsBlanks" dxfId="100" priority="48">
+    <cfRule type="containsBlanks" dxfId="96" priority="48">
       <formula>LEN(TRIM(G38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="99" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="41" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="98" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="42" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="97" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="43" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="containsBlanks" dxfId="96" priority="44">
+    <cfRule type="containsBlanks" dxfId="92" priority="44">
       <formula>LEN(TRIM(G41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="95" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="37" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="94" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="38" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="93" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="39" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="containsBlanks" dxfId="92" priority="40">
+    <cfRule type="containsBlanks" dxfId="88" priority="40">
       <formula>LEN(TRIM(I2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="91" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="33" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="90" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="34" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="89" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="35" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsBlanks" dxfId="88" priority="36">
+    <cfRule type="containsBlanks" dxfId="84" priority="36">
       <formula>LEN(TRIM(I3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="87" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="29" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="86" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="30" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="85" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="31" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsBlanks" dxfId="84" priority="32">
+    <cfRule type="containsBlanks" dxfId="80" priority="32">
       <formula>LEN(TRIM(G7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="83" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="25" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="82" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="26" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="81" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="27" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="80" priority="28">
+    <cfRule type="containsBlanks" dxfId="76" priority="28">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="79" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="21" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="78" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="22" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="77" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="23" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsBlanks" dxfId="76" priority="24">
+    <cfRule type="containsBlanks" dxfId="72" priority="24">
       <formula>LEN(TRIM(G32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="75" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="17" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="74" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="18" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="73" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="19" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="containsBlanks" dxfId="72" priority="20">
+    <cfRule type="containsBlanks" dxfId="68" priority="20">
       <formula>LEN(TRIM(G44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="71" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="70" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="69" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="11" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsBlanks" dxfId="68" priority="12">
+    <cfRule type="containsBlanks" dxfId="64" priority="12">
       <formula>LEN(TRIM(G10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="67" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="66" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="65" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="7" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsBlanks" dxfId="64" priority="8">
+    <cfRule type="containsBlanks" dxfId="60" priority="8">
       <formula>LEN(TRIM(G12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="containsBlanks" dxfId="60" priority="4">
+    <cfRule type="containsBlanks" dxfId="56" priority="4">
       <formula>LEN(TRIM(G13))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4717,7 +4692,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F16" sqref="F16"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4736,12 +4711,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="61"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -4752,52 +4727,48 @@
       <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="62" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="44">
-        <v>44568</v>
-      </c>
+      <c r="E2" s="44"/>
       <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="G2" s="5"/>
       <c r="H2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="20">
         <f>COUNTIF(G7:G44, "PASS")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="57"/>
+      <c r="A3" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="65"/>
       <c r="C3" s="2"/>
       <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4809,14 +4780,14 @@
       </c>
       <c r="I3" s="21">
         <f>COUNTIF(G7:G44, "Fail")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="s">
         <v>14</v>
@@ -4837,15 +4808,15 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="57"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="65"/>
       <c r="H5" s="12" t="s">
         <v>18</v>
       </c>
@@ -4871,7 +4842,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G6" s="46" t="s">
         <v>22</v>
@@ -4880,126 +4851,140 @@
         <v>2</v>
       </c>
       <c r="I6" s="48" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="67" t="s">
-        <v>31</v>
+      <c r="E7" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>29</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="D8" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="G8" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="54" t="s">
-        <v>95</v>
-      </c>
       <c r="I8" s="34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>105</v>
+        <v>95</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>103</v>
       </c>
       <c r="D9" s="72"/>
       <c r="E9" s="75"/>
       <c r="F9" s="75"/>
-      <c r="G9" s="70" t="s">
+      <c r="G9" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="65" t="s">
-        <v>95</v>
+      <c r="H9" s="57" t="s">
+        <v>93</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>98</v>
+        <v>102</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>96</v>
       </c>
       <c r="D10" s="73"/>
       <c r="E10" s="76"/>
       <c r="F10" s="76"/>
-      <c r="G10" s="69" t="s">
+      <c r="G10" s="61" t="s">
         <v>0</v>
       </c>
       <c r="H10" s="51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="68"/>
+      <c r="A11" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>110</v>
+      </c>
       <c r="G11" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="55"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="63" t="s">
+        <v>111</v>
+      </c>
       <c r="I11" s="34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">
@@ -5014,7 +4999,7 @@
       </c>
       <c r="H12" s="51"/>
       <c r="I12" s="34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5029,7 +5014,7 @@
       </c>
       <c r="H13" s="51"/>
       <c r="I13" s="34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6318,242 +6303,242 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="G13 G16 G22 G8:G10">
-    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="57" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13 G16 G22 G8:G10">
-    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="58" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13 G16 G22 G8:G10">
-    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="59" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13 G16 G22 G8:G10">
-    <cfRule type="containsBlanks" dxfId="56" priority="60">
+    <cfRule type="containsBlanks" dxfId="52" priority="60">
       <formula>LEN(TRIM(G8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="55" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsBlanks" dxfId="52" priority="56">
+    <cfRule type="containsBlanks" dxfId="48" priority="56">
       <formula>LEN(TRIM(G25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsBlanks" dxfId="48" priority="52">
+    <cfRule type="containsBlanks" dxfId="44" priority="52">
       <formula>LEN(TRIM(G28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="47" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsBlanks" dxfId="44" priority="48">
+    <cfRule type="containsBlanks" dxfId="40" priority="48">
       <formula>LEN(TRIM(G34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="43" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="containsBlanks" dxfId="40" priority="44">
+    <cfRule type="containsBlanks" dxfId="36" priority="44">
       <formula>LEN(TRIM(G37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="39" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="containsBlanks" dxfId="36" priority="40">
+    <cfRule type="containsBlanks" dxfId="32" priority="40">
       <formula>LEN(TRIM(G40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="containsBlanks" dxfId="32" priority="36">
+    <cfRule type="containsBlanks" dxfId="28" priority="36">
       <formula>LEN(TRIM(I2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsBlanks" dxfId="28" priority="32">
+    <cfRule type="containsBlanks" dxfId="24" priority="32">
       <formula>LEN(TRIM(I3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsBlanks" dxfId="24" priority="28">
+    <cfRule type="containsBlanks" dxfId="20" priority="28">
       <formula>LEN(TRIM(G7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="containsBlanks" dxfId="20" priority="24">
+    <cfRule type="containsBlanks" dxfId="16" priority="24">
       <formula>LEN(TRIM(G19))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsBlanks" dxfId="16" priority="20">
+    <cfRule type="containsBlanks" dxfId="12" priority="20">
       <formula>LEN(TRIM(G31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="containsBlanks" dxfId="12" priority="16">
+    <cfRule type="containsBlanks" dxfId="8" priority="16">
       <formula>LEN(TRIM(G43))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6607,9 +6592,10 @@
     <hyperlink ref="H8" r:id="rId2" xr:uid="{DB53CE6B-1C6D-45E8-B70D-1AF146708407}"/>
     <hyperlink ref="H10" r:id="rId3" xr:uid="{D0F81FC2-C92B-4275-9B42-EA6D9FCA00ED}"/>
     <hyperlink ref="H9" r:id="rId4" xr:uid="{69A3465F-667F-4906-A05C-4849D90A2D76}"/>
+    <hyperlink ref="H11" r:id="rId5" xr:uid="{B9097956-4E88-49D8-A1F8-BFF23720E203}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup orientation="landscape" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/Test-case-pickaboo.xlsx
+++ b/Test-case-pickaboo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\SQA\Project\Test Case Pickaboo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789275F2-24AA-45E8-ABAE-A12AE0979675}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC956321-8AED-4B02-B01B-A51FB7559493}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration Page" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="120">
   <si>
     <t>PASS</t>
   </si>
@@ -149,9 +149,6 @@
     <t>Showed an error message</t>
   </si>
   <si>
-    <t xml:space="preserve">Goto www.pickaboo.com -&gt; Tap on register option -&gt; Do not enter any value in all field -&gt;  Tap on create an account button </t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify entering blank spaces on all input fields </t>
   </si>
   <si>
@@ -200,9 +197,6 @@
     <t>Four length password</t>
   </si>
   <si>
-    <t>Goto www.pickaboo.com -&gt; Tap on register option -&gt; Enter four length password in password field</t>
-  </si>
-  <si>
     <t>It should show validation message</t>
   </si>
   <si>
@@ -236,9 +230,6 @@
     <t>It should display error with required rules for password.  like it should contain a special character, a small case, a number</t>
   </si>
   <si>
-    <t>Goto www.pickaboo.com -&gt; Tap on register option -&gt;  Enter the password which not satisfies the required rule</t>
-  </si>
-  <si>
     <t>Didn't give any validation error</t>
   </si>
   <si>
@@ -251,15 +242,6 @@
     <t>TC-Reg-007</t>
   </si>
   <si>
-    <t xml:space="preserve">Goto www.pickaboo.com -&gt; Tap on register option -&gt; Enter alphanumeric data in Customer Mobile field -&gt; Click on Generate OTP button </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goto www.pickaboo.com -&gt; Tap on register option -&gt; Enter wrong OTP -&gt;  Click on Generate OTP button </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goto www.pickaboo.com -&gt; Tap on register option -&gt; Enter correct OTP -&gt;  Click on Generate OTP button </t>
-  </si>
-  <si>
     <t>Actual Result</t>
   </si>
   <si>
@@ -290,12 +272,6 @@
     <t>Different value in password and confirm password input field</t>
   </si>
   <si>
-    <t xml:space="preserve">Goto www.pickaboo.com -&gt; Tap on register option -&gt; Put same value in password and confirm password input field -&gt; Click on create an account button </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goto www.pickaboo.com -&gt; Tap on register option -&gt; Put different value in password and confirm password input field -&gt; Click on create an account button </t>
-  </si>
-  <si>
     <t>Will show error message</t>
   </si>
   <si>
@@ -341,9 +317,6 @@
     <t>It should show the validation error message for invalid email</t>
   </si>
   <si>
-    <t>Picaboo</t>
-  </si>
-  <si>
     <t>Registration Page</t>
   </si>
   <si>
@@ -384,6 +357,79 @@
   </si>
   <si>
     <t>Sakibul Islam</t>
+  </si>
+  <si>
+    <t>TC-Reg-009</t>
+  </si>
+  <si>
+    <t>dgjjhjgh</t>
+  </si>
+  <si>
+    <t>Will show validation message</t>
+  </si>
+  <si>
+    <t>No validation message</t>
+  </si>
+  <si>
+    <t>Invalid name</t>
+  </si>
+  <si>
+    <t>Pickaboo</t>
+  </si>
+  <si>
+    <t>Check name validity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Goto www.pickaboo.com
+2) Tap on register option
+3) Do not enter any value in all field
+4) Tap on create an account button  </t>
+  </si>
+  <si>
+    <t>1) Goto www.pickaboo.com
+2) Tap on register option
+3) Enter alphanumeric data in Customer Mobile field
+4) Click on Generate OTP button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Goto www.pickaboo.com
+2) Tap on register option
+3) Enter wrong OTP
+4) Click on Generate OTP button </t>
+  </si>
+  <si>
+    <t>1) Goto www.pickaboo.com
+2) Tap on register option
+3) Enter correct OTP
+4) Click on Generate OTP button</t>
+  </si>
+  <si>
+    <t>1) Goto www.pickaboo.com
+2) Tap on register option
+3) Enter four length password in password field</t>
+  </si>
+  <si>
+    <t>1) Goto www.pickaboo.com
+2) Tap on register option
+3) Enter the password which not satisfies the password verification rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Goto www.pickaboo.com
+2) Tap on register option
+3) Put same value in password and confirm password input field
+4) Click on create an account button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Goto www.pickaboo.com
+2) Tap on register option
+3) Put different value in password and confirm password input field
+4) Click on create an account button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Goto www.pickaboo.com
+2) Tap on register option
+3) Give invalid name
+4) Click on create an account button </t>
   </si>
 </sst>
 </file>
@@ -745,7 +791,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -934,6 +980,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -980,7 +1029,48 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="116">
+  <dxfs count="120">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2681,10 +2771,10 @@
   </sheetPr>
   <dimension ref="A1:I976"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F16" sqref="F16"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2703,12 +2793,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="69"/>
+      <c r="B1" s="70"/>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -2720,18 +2810,18 @@
         <v>6</v>
       </c>
       <c r="G1" s="5"/>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="65"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="66"/>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2750,16 +2840,16 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="65"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="2"/>
       <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
@@ -2776,10 +2866,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="65"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="s">
         <v>14</v>
@@ -2796,25 +2886,25 @@
       </c>
       <c r="I4" s="22">
         <f>COUNTIF(G7:G45, "WARNING")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="66"/>
       <c r="H5" s="12" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="23">
         <f>SUM(I2:I4:I3)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2834,7 +2924,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G6" s="46" t="s">
         <v>22</v>
@@ -2848,16 +2938,16 @@
     </row>
     <row r="7" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>28</v>
@@ -2875,21 +2965,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>33</v>
@@ -2898,36 +2988,36 @@
         <v>0</v>
       </c>
       <c r="H8" s="51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="E9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>0</v>
       </c>
       <c r="H9" s="51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="34" t="s">
         <v>30</v>
@@ -2935,57 +3025,57 @@
     </row>
     <row r="10" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>0</v>
       </c>
       <c r="H10" s="51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" s="34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="D11" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="F11" s="15" t="s">
         <v>51</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>53</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I11" s="34" t="s">
         <v>30</v>
@@ -2993,101 +3083,119 @@
     </row>
     <row r="12" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="F12" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>64</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="51" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>73</v>
-      </c>
       <c r="F13" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="51" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I13" s="34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>0</v>
       </c>
       <c r="H14" s="51" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I14" s="34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="41"/>
+    <row r="15" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
@@ -4362,307 +4470,327 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="G11 G14 G17 G23 G8:G9">
-    <cfRule type="cellIs" dxfId="115" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="69" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11 G14 G17 G23 G8:G9">
-    <cfRule type="cellIs" dxfId="114" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="70" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11 G14 G17 G23 G8:G9">
-    <cfRule type="cellIs" dxfId="113" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="71" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11 G14 G17 G23 G8:G9">
-    <cfRule type="containsBlanks" dxfId="112" priority="68">
+    <cfRule type="containsBlanks" dxfId="116" priority="72">
       <formula>LEN(TRIM(G8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="115" priority="61" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="114" priority="62" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="113" priority="63" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="containsBlanks" dxfId="112" priority="64">
+      <formula>LEN(TRIM(G26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
     <cfRule type="cellIs" dxfId="111" priority="57" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="G29">
     <cfRule type="cellIs" dxfId="110" priority="58" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="G29">
     <cfRule type="cellIs" dxfId="109" priority="59" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="G29">
     <cfRule type="containsBlanks" dxfId="108" priority="60">
-      <formula>LEN(TRIM(G26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+      <formula>LEN(TRIM(G29))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
     <cfRule type="cellIs" dxfId="107" priority="53" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="G35">
     <cfRule type="cellIs" dxfId="106" priority="54" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="G35">
     <cfRule type="cellIs" dxfId="105" priority="55" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="G35">
     <cfRule type="containsBlanks" dxfId="104" priority="56">
-      <formula>LEN(TRIM(G29))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
+      <formula>LEN(TRIM(G35))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
     <cfRule type="cellIs" dxfId="103" priority="49" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
+  <conditionalFormatting sqref="G38">
     <cfRule type="cellIs" dxfId="102" priority="50" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
+  <conditionalFormatting sqref="G38">
     <cfRule type="cellIs" dxfId="101" priority="51" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
+  <conditionalFormatting sqref="G38">
     <cfRule type="containsBlanks" dxfId="100" priority="52">
-      <formula>LEN(TRIM(G35))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
+      <formula>LEN(TRIM(G38))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
     <cfRule type="cellIs" dxfId="99" priority="45" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
+  <conditionalFormatting sqref="G41">
     <cfRule type="cellIs" dxfId="98" priority="46" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
+  <conditionalFormatting sqref="G41">
     <cfRule type="cellIs" dxfId="97" priority="47" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
+  <conditionalFormatting sqref="G41">
     <cfRule type="containsBlanks" dxfId="96" priority="48">
-      <formula>LEN(TRIM(G38))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
+      <formula>LEN(TRIM(G41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
     <cfRule type="cellIs" dxfId="95" priority="41" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
+  <conditionalFormatting sqref="I2">
     <cfRule type="cellIs" dxfId="94" priority="42" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
+  <conditionalFormatting sqref="I2">
     <cfRule type="cellIs" dxfId="93" priority="43" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
+  <conditionalFormatting sqref="I2">
     <cfRule type="containsBlanks" dxfId="92" priority="44">
-      <formula>LEN(TRIM(G41))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
+      <formula>LEN(TRIM(I2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
     <cfRule type="cellIs" dxfId="91" priority="37" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
+  <conditionalFormatting sqref="I3">
     <cfRule type="cellIs" dxfId="90" priority="38" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
+  <conditionalFormatting sqref="I3">
     <cfRule type="cellIs" dxfId="89" priority="39" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
+  <conditionalFormatting sqref="I3">
     <cfRule type="containsBlanks" dxfId="88" priority="40">
-      <formula>LEN(TRIM(I2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
+      <formula>LEN(TRIM(I3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
     <cfRule type="cellIs" dxfId="87" priority="33" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
+  <conditionalFormatting sqref="G7">
     <cfRule type="cellIs" dxfId="86" priority="34" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
+  <conditionalFormatting sqref="G7">
     <cfRule type="cellIs" dxfId="85" priority="35" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
+  <conditionalFormatting sqref="G7">
     <cfRule type="containsBlanks" dxfId="84" priority="36">
-      <formula>LEN(TRIM(I3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+      <formula>LEN(TRIM(G7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
     <cfRule type="cellIs" dxfId="83" priority="29" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="G20">
     <cfRule type="cellIs" dxfId="82" priority="30" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="G20">
     <cfRule type="cellIs" dxfId="81" priority="31" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="G20">
     <cfRule type="containsBlanks" dxfId="80" priority="32">
-      <formula>LEN(TRIM(G7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+      <formula>LEN(TRIM(G20))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
     <cfRule type="cellIs" dxfId="79" priority="25" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="G32">
     <cfRule type="cellIs" dxfId="78" priority="26" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="G32">
     <cfRule type="cellIs" dxfId="77" priority="27" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="G32">
     <cfRule type="containsBlanks" dxfId="76" priority="28">
-      <formula>LEN(TRIM(G20))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+      <formula>LEN(TRIM(G32))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44">
     <cfRule type="cellIs" dxfId="75" priority="21" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+  <conditionalFormatting sqref="G44">
     <cfRule type="cellIs" dxfId="74" priority="22" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+  <conditionalFormatting sqref="G44">
     <cfRule type="cellIs" dxfId="73" priority="23" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+  <conditionalFormatting sqref="G44">
     <cfRule type="containsBlanks" dxfId="72" priority="24">
-      <formula>LEN(TRIM(G32))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="71" priority="17" operator="equal">
+      <formula>LEN(TRIM(G44))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="71" priority="13" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="70" priority="18" operator="equal">
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="70" priority="14" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="69" priority="19" operator="equal">
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="69" priority="15" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="containsBlanks" dxfId="68" priority="20">
-      <formula>LEN(TRIM(G44))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G10">
+    <cfRule type="containsBlanks" dxfId="68" priority="16">
+      <formula>LEN(TRIM(G10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
     <cfRule type="cellIs" dxfId="67" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
+  <conditionalFormatting sqref="G12">
     <cfRule type="cellIs" dxfId="66" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
+  <conditionalFormatting sqref="G12">
     <cfRule type="cellIs" dxfId="65" priority="11" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
+  <conditionalFormatting sqref="G12">
     <cfRule type="containsBlanks" dxfId="64" priority="12">
-      <formula>LEN(TRIM(G10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
+      <formula>LEN(TRIM(G12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
     <cfRule type="cellIs" dxfId="63" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
+  <conditionalFormatting sqref="G13">
     <cfRule type="cellIs" dxfId="62" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
+  <conditionalFormatting sqref="G13">
     <cfRule type="cellIs" dxfId="61" priority="7" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
+  <conditionalFormatting sqref="G13">
     <cfRule type="containsBlanks" dxfId="60" priority="8">
-      <formula>LEN(TRIM(G12))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
+      <formula>LEN(TRIM(G13))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
     <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
+  <conditionalFormatting sqref="G15">
     <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
+  <conditionalFormatting sqref="G15">
     <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
+  <conditionalFormatting sqref="G15">
     <cfRule type="containsBlanks" dxfId="56" priority="4">
-      <formula>LEN(TRIM(G13))=0</formula>
+      <formula>LEN(TRIM(G15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="1346" yWindow="406" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items" sqref="G17 G23 G26 G29 G35 G38 G41 G20 G32 G44 G7:G14" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items" sqref="G17 G23 G26 G29 G35 G38 G41 G20 G32 G44 G7:G15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PASS,FAIL,WARNING"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4675,10 +4803,11 @@
     <hyperlink ref="H12" r:id="rId6" xr:uid="{0D86AB5D-AAD9-4C0A-97E8-E4C7A12FC061}"/>
     <hyperlink ref="H13" r:id="rId7" xr:uid="{6DA80DF0-48B1-4219-9A25-1F4FDD428885}"/>
     <hyperlink ref="H14" r:id="rId8" xr:uid="{0427BC06-5318-481D-B036-14C9A7380BAA}"/>
+    <hyperlink ref="H15" r:id="rId9" xr:uid="{5AC4B532-5E71-4258-A640-8B0EF993CC1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId9"/>
-  <drawing r:id="rId10"/>
+  <pageSetup orientation="landscape" r:id="rId10"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -4689,10 +4818,10 @@
   </sheetPr>
   <dimension ref="A1:I975"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F16" sqref="F16"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8:D10"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4711,12 +4840,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="69"/>
+      <c r="B1" s="70"/>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -4728,18 +4857,18 @@
         <v>6</v>
       </c>
       <c r="G1" s="5"/>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="65"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="66"/>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -4754,20 +4883,20 @@
       </c>
       <c r="I2" s="20">
         <f>COUNTIF(G7:G44, "PASS")</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="65"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="2"/>
       <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
@@ -4784,10 +4913,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="65"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="s">
         <v>14</v>
@@ -4808,21 +4937,21 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="66"/>
       <c r="H5" s="12" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="23">
         <f>SUM(I2:I4:I3)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4842,7 +4971,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G6" s="46" t="s">
         <v>22</v>
@@ -4856,16 +4985,16 @@
     </row>
     <row r="7" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E7" s="58" t="s">
         <v>28</v>
@@ -4885,28 +5014,28 @@
     </row>
     <row r="8" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="74" t="s">
-        <v>92</v>
+      <c r="F8" s="75" t="s">
+        <v>84</v>
       </c>
       <c r="G8" s="61" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="54" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I8" s="34" t="s">
         <v>30</v>
@@ -4914,22 +5043,22 @@
     </row>
     <row r="9" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
       <c r="G9" s="62" t="s">
         <v>0</v>
       </c>
       <c r="H9" s="57" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I9" s="34" t="s">
         <v>30</v>
@@ -4937,22 +5066,22 @@
     </row>
     <row r="10" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
+        <v>88</v>
+      </c>
+      <c r="D10" s="74"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
       <c r="G10" s="61" t="s">
         <v>0</v>
       </c>
       <c r="H10" s="51" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I10" s="34" t="s">
         <v>30</v>
@@ -4960,31 +5089,31 @@
     </row>
     <row r="11" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F11" s="60" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G11" s="53" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="63" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">
@@ -4994,13 +5123,9 @@
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="16" t="s">
-        <v>0</v>
-      </c>
+      <c r="G12" s="16"/>
       <c r="H12" s="51"/>
-      <c r="I12" s="34" t="s">
-        <v>30</v>
-      </c>
+      <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
@@ -5009,13 +5134,9 @@
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="16" t="s">
-        <v>0</v>
-      </c>
+      <c r="G13" s="16"/>
       <c r="H13" s="51"/>
-      <c r="I13" s="34" t="s">
-        <v>30</v>
-      </c>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
@@ -6291,16 +6412,16 @@
     <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="G13 G16 G22 G8:G10">
     <cfRule type="cellIs" dxfId="55" priority="57" operator="equal">

--- a/Test-case-pickaboo.xlsx
+++ b/Test-case-pickaboo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\SQA\Project\Test Case Pickaboo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC956321-8AED-4B02-B01B-A51FB7559493}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF47726-49F5-4BBA-9896-0A8D26A6E95A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -287,9 +287,6 @@
     <t>Blank Input</t>
   </si>
   <si>
-    <t xml:space="preserve">Goto www.pickaboo.com -&gt; Tap on log in option -&gt; Do not enter any value in all field -&gt;  Tap on log in button </t>
-  </si>
-  <si>
     <t>TC-Log-002</t>
   </si>
   <si>
@@ -323,9 +320,6 @@
     <t>Login Page</t>
   </si>
   <si>
-    <t>Goto www.pickaboo.com -&gt; Tap on log in option -&gt; Enter invalid emails -&gt; Click on the login button</t>
-  </si>
-  <si>
     <t>Check the Email text field that has a missing dot in the email address.</t>
   </si>
   <si>
@@ -339,9 +333,6 @@
   </si>
   <si>
     <t>Verify entering wrong email and password</t>
-  </si>
-  <si>
-    <t>Goto www.pickaboo.com -&gt; Tap on log in option -&gt; Enter wrong email and password</t>
   </si>
   <si>
     <t>User should not log in and should show proper error message</t>
@@ -430,6 +421,24 @@
 2) Tap on register option
 3) Give invalid name
 4) Click on create an account button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Goto www.pickaboo.com
+2) Tap on log in option
+3) Do not enter any value in all field
+4) Tap on log in button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Goto www.pickaboo.com
+2) Tap on log in option
+3) Enter invalid emails
+4) Click on the login button
+</t>
+  </si>
+  <si>
+    <t>1) Goto www.pickaboo.com
+2) Tap on log in option
+3) Enter wrong email and password</t>
   </si>
 </sst>
 </file>
@@ -2772,7 +2781,7 @@
   <dimension ref="A1:I976"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F16" sqref="F16"/>
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
@@ -2798,7 +2807,7 @@
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -2821,7 +2830,7 @@
       </c>
       <c r="B2" s="66"/>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2849,7 +2858,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
@@ -2947,7 +2956,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>28</v>
@@ -2976,7 +2985,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>38</v>
@@ -3005,7 +3014,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>39</v>
@@ -3034,7 +3043,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>45</v>
@@ -3063,7 +3072,7 @@
         <v>49</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>50</v>
@@ -3092,7 +3101,7 @@
         <v>69</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>60</v>
@@ -3121,7 +3130,7 @@
         <v>68</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>67</v>
@@ -3150,7 +3159,7 @@
         <v>74</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>75</v>
@@ -3170,28 +3179,28 @@
     </row>
     <row r="15" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>107</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="64" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I15" s="34" t="s">
         <v>62</v>
@@ -4821,7 +4830,7 @@
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F16" sqref="F16"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4845,7 +4854,7 @@
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -4868,7 +4877,7 @@
       </c>
       <c r="B2" s="66"/>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -4896,7 +4905,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
@@ -4994,7 +5003,7 @@
         <v>79</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="E7" s="58" t="s">
         <v>28</v>
@@ -5014,28 +5023,28 @@
     </row>
     <row r="8" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="D8" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="75" t="s">
         <v>83</v>
-      </c>
-      <c r="D8" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="75" t="s">
-        <v>84</v>
       </c>
       <c r="G8" s="61" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8" s="34" t="s">
         <v>30</v>
@@ -5043,13 +5052,13 @@
     </row>
     <row r="9" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>87</v>
-      </c>
       <c r="C9" s="56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D9" s="73"/>
       <c r="E9" s="76"/>
@@ -5058,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9" s="34" t="s">
         <v>30</v>
@@ -5066,13 +5075,13 @@
     </row>
     <row r="10" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="74"/>
       <c r="E10" s="77"/>
@@ -5081,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" s="34" t="s">
         <v>30</v>
@@ -5089,28 +5098,28 @@
     </row>
     <row r="11" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="14" t="s">
+      <c r="F11" s="60" t="s">
         <v>98</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>101</v>
       </c>
       <c r="G11" s="53" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I11" s="34" t="s">
         <v>62</v>
@@ -6412,16 +6421,16 @@
     <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="G13 G16 G22 G8:G10">
     <cfRule type="cellIs" dxfId="55" priority="57" operator="equal">

--- a/Test-case-pickaboo.xlsx
+++ b/Test-case-pickaboo.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\SQA\Project\Test Case Pickaboo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF47726-49F5-4BBA-9896-0A8D26A6E95A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BDF6DF-2B68-4604-AC9A-7B74CF7CD7DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration Page" sheetId="3" r:id="rId1"/>
     <sheet name="Login Page" sheetId="5" r:id="rId2"/>
+    <sheet name="Cart" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="mm" localSheetId="1">'Login Page'!$H$8</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="125">
   <si>
     <t>PASS</t>
   </si>
@@ -439,6 +440,21 @@
     <t>1) Goto www.pickaboo.com
 2) Tap on log in option
 3) Enter wrong email and password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precondition </t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>Cart</t>
   </si>
 </sst>
 </file>
@@ -584,7 +600,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -795,12 +811,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1033,12 +1071,581 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="120">
+  <dxfs count="172">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2780,8 +3387,8 @@
   </sheetPr>
   <dimension ref="A1:I976"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F16" sqref="F16"/>
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
@@ -4479,322 +5086,322 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="G11 G14 G17 G23 G8:G9">
-    <cfRule type="cellIs" dxfId="119" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="69" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11 G14 G17 G23 G8:G9">
-    <cfRule type="cellIs" dxfId="118" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="70" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11 G14 G17 G23 G8:G9">
-    <cfRule type="cellIs" dxfId="117" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="71" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11 G14 G17 G23 G8:G9">
-    <cfRule type="containsBlanks" dxfId="116" priority="72">
+    <cfRule type="containsBlanks" dxfId="168" priority="72">
       <formula>LEN(TRIM(G8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="115" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="61" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="114" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="62" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="113" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="63" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="containsBlanks" dxfId="112" priority="64">
+    <cfRule type="containsBlanks" dxfId="164" priority="64">
       <formula>LEN(TRIM(G26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="111" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="57" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="110" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="58" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="109" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="59" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsBlanks" dxfId="108" priority="60">
+    <cfRule type="containsBlanks" dxfId="160" priority="60">
       <formula>LEN(TRIM(G29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="107" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="53" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="106" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="54" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="105" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="55" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="containsBlanks" dxfId="104" priority="56">
+    <cfRule type="containsBlanks" dxfId="156" priority="56">
       <formula>LEN(TRIM(G35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="103" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="49" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="102" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="50" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="101" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="51" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="containsBlanks" dxfId="100" priority="52">
+    <cfRule type="containsBlanks" dxfId="152" priority="52">
       <formula>LEN(TRIM(G38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="99" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="45" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="98" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="46" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="97" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="47" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="containsBlanks" dxfId="96" priority="48">
+    <cfRule type="containsBlanks" dxfId="148" priority="48">
       <formula>LEN(TRIM(G41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="95" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="41" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="94" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="42" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="93" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="43" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="containsBlanks" dxfId="92" priority="44">
+    <cfRule type="containsBlanks" dxfId="144" priority="44">
       <formula>LEN(TRIM(I2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="91" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="37" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="90" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="38" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="89" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="39" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsBlanks" dxfId="88" priority="40">
+    <cfRule type="containsBlanks" dxfId="140" priority="40">
       <formula>LEN(TRIM(I3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="87" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="33" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="86" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="34" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="85" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="35" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsBlanks" dxfId="84" priority="36">
+    <cfRule type="containsBlanks" dxfId="136" priority="36">
       <formula>LEN(TRIM(G7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="83" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="29" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="82" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="30" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="81" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="31" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="80" priority="32">
+    <cfRule type="containsBlanks" dxfId="132" priority="32">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="79" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="25" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="78" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="26" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="77" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="27" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsBlanks" dxfId="76" priority="28">
+    <cfRule type="containsBlanks" dxfId="128" priority="28">
       <formula>LEN(TRIM(G32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="75" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="21" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="74" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="22" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="73" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="23" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="containsBlanks" dxfId="72" priority="24">
+    <cfRule type="containsBlanks" dxfId="124" priority="24">
       <formula>LEN(TRIM(G44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="71" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="13" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="70" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="14" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="69" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="15" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsBlanks" dxfId="68" priority="16">
+    <cfRule type="containsBlanks" dxfId="120" priority="16">
       <formula>LEN(TRIM(G10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="67" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="66" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="65" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="11" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsBlanks" dxfId="64" priority="12">
+    <cfRule type="containsBlanks" dxfId="116" priority="12">
       <formula>LEN(TRIM(G12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="63" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="62" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="61" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="7" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="containsBlanks" dxfId="60" priority="8">
+    <cfRule type="containsBlanks" dxfId="112" priority="8">
       <formula>LEN(TRIM(G13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="3" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="containsBlanks" dxfId="56" priority="4">
+    <cfRule type="containsBlanks" dxfId="108" priority="4">
       <formula>LEN(TRIM(G15))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4830,7 +5437,7 @@
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F16" sqref="F16"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8:E10"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4860,7 +5467,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="44">
-        <v>44565</v>
+        <v>44566</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>6</v>
@@ -6421,294 +7028,294 @@
     <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="G13 G16 G22 G8:G10">
-    <cfRule type="cellIs" dxfId="55" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="57" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13 G16 G22 G8:G10">
-    <cfRule type="cellIs" dxfId="54" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="58" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13 G16 G22 G8:G10">
-    <cfRule type="cellIs" dxfId="53" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="59" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13 G16 G22 G8:G10">
-    <cfRule type="containsBlanks" dxfId="52" priority="60">
+    <cfRule type="containsBlanks" dxfId="104" priority="60">
       <formula>LEN(TRIM(G8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="53" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="54" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="49" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="55" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsBlanks" dxfId="48" priority="56">
+    <cfRule type="containsBlanks" dxfId="100" priority="56">
       <formula>LEN(TRIM(G25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="49" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="50" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="51" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsBlanks" dxfId="44" priority="52">
+    <cfRule type="containsBlanks" dxfId="96" priority="52">
       <formula>LEN(TRIM(G28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="45" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="46" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="41" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="47" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsBlanks" dxfId="40" priority="48">
+    <cfRule type="containsBlanks" dxfId="92" priority="48">
       <formula>LEN(TRIM(G34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="41" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="42" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="cellIs" dxfId="37" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="43" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="containsBlanks" dxfId="36" priority="44">
+    <cfRule type="containsBlanks" dxfId="88" priority="44">
       <formula>LEN(TRIM(G37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="37" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="38" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="33" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="39" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="containsBlanks" dxfId="32" priority="40">
+    <cfRule type="containsBlanks" dxfId="84" priority="40">
       <formula>LEN(TRIM(G40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="33" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="34" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="35" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="containsBlanks" dxfId="28" priority="36">
+    <cfRule type="containsBlanks" dxfId="80" priority="36">
       <formula>LEN(TRIM(I2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="29" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="30" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="31" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsBlanks" dxfId="24" priority="32">
+    <cfRule type="containsBlanks" dxfId="76" priority="32">
       <formula>LEN(TRIM(I3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="25" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="26" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="27" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsBlanks" dxfId="20" priority="28">
+    <cfRule type="containsBlanks" dxfId="72" priority="28">
       <formula>LEN(TRIM(G7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="21" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="22" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="23" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="containsBlanks" dxfId="16" priority="24">
+    <cfRule type="containsBlanks" dxfId="68" priority="24">
       <formula>LEN(TRIM(G19))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="17" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="18" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="19" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsBlanks" dxfId="12" priority="20">
+    <cfRule type="containsBlanks" dxfId="64" priority="20">
       <formula>LEN(TRIM(G31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="13" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="14" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="15" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="containsBlanks" dxfId="8" priority="16">
+    <cfRule type="containsBlanks" dxfId="60" priority="16">
       <formula>LEN(TRIM(G43))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="7" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsBlanks" dxfId="4" priority="8">
+    <cfRule type="containsBlanks" dxfId="56" priority="8">
       <formula>LEN(TRIM(G11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsBlanks" dxfId="0" priority="4">
+    <cfRule type="containsBlanks" dxfId="52" priority="4">
       <formula>LEN(TRIM(G12))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6728,4 +7335,1920 @@
   <pageSetup orientation="landscape" r:id="rId6"/>
   <drawing r:id="rId7"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C244AE28-93B6-4109-8DD6-49EF36225A71}">
+  <dimension ref="A1:J981"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="30" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="25" style="7" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="44">
+        <v>44568</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="78"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="20">
+        <f>COUNTIF(H7:H50, "PASS")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="78"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="89">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="21">
+        <f>COUNTIF(H7:H50, "Fail")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="78"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="22">
+        <f>COUNTIF(H7:H50, "WARNING")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="23">
+        <f>SUM(I2:I4:I3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="79"/>
+      <c r="J7" s="41"/>
+    </row>
+    <row r="8" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="79"/>
+      <c r="J8" s="41"/>
+    </row>
+    <row r="9" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="41"/>
+    </row>
+    <row r="10" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="41"/>
+    </row>
+    <row r="11" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="41"/>
+    </row>
+    <row r="12" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="41"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="41"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="41"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="19"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="41"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="41"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="41"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="19"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="41"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="41"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="41"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="41"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="41"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="41"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="19"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="41"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="41"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="41"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="41"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="41"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="41"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="19"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="41"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="41"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="41"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="19"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="41"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="41"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="41"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="19"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="41"/>
+    </row>
+    <row r="37" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="41"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="41"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="19"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="41"/>
+    </row>
+    <row r="40" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="41"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="41"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="19"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="41"/>
+    </row>
+    <row r="43" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="41"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="41"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="19"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="41"/>
+    </row>
+    <row r="46" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="41"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="41"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="19"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="41"/>
+    </row>
+    <row r="49" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="85"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="86"/>
+      <c r="J49" s="87"/>
+    </row>
+    <row r="50" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H11 H14 H17 H8:H9 H23">
+    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11 H14 H17 H8:H9 H23">
+    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11 H14 H17 H8:H9 H23">
+    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11 H14 H17 H8:H9 H23">
+    <cfRule type="containsBlanks" dxfId="48" priority="52">
+      <formula>LEN(TRIM(H8))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="containsBlanks" dxfId="44" priority="48">
+      <formula>LEN(TRIM(H26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsBlanks" dxfId="40" priority="44">
+      <formula>LEN(TRIM(H29))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="containsBlanks" dxfId="36" priority="40">
+      <formula>LEN(TRIM(H35))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="containsBlanks" dxfId="32" priority="36">
+      <formula>LEN(TRIM(H38))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="containsBlanks" dxfId="28" priority="32">
+      <formula>LEN(TRIM(H41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="containsBlanks" dxfId="24" priority="28">
+      <formula>LEN(TRIM(I2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="containsBlanks" dxfId="20" priority="24">
+      <formula>LEN(TRIM(I3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsBlanks" dxfId="16" priority="20">
+      <formula>LEN(TRIM(H7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="containsBlanks" dxfId="12" priority="16">
+      <formula>LEN(TRIM(H20))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="containsBlanks" dxfId="8" priority="12">
+      <formula>LEN(TRIM(H32))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="containsBlanks" dxfId="4" priority="8">
+      <formula>LEN(TRIM(H44))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="containsBlanks" dxfId="0" priority="4">
+      <formula>LEN(TRIM(H47))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items" sqref="H7:H9 H11 H14 H17 H23 H26 H29 H35 H38 H41 H20 H32 H44 H47" xr:uid="{4464F9D0-5681-4AC0-8047-BF130B6482DA}">
+      <formula1>"PASS,FAIL,WARNING"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>